--- a/VFS.xlsx
+++ b/VFS.xlsx
@@ -11,7 +11,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>API_KEY</t>
+  </si>
+  <si>
+    <t>VFS_EMAIL</t>
+  </si>
+  <si>
+    <t>VFS_PASSWORD</t>
+  </si>
   <si>
     <t>Phone</t>
   </si>
@@ -29,6 +38,15 @@
   </si>
   <si>
     <t>Representation</t>
+  </si>
+  <si>
+    <t>3525acfb390c2e4cfb080f5cf189315b</t>
+  </si>
+  <si>
+    <t>bilavab750@em2lab.com</t>
+  </si>
+  <si>
+    <t>5D#4qGjVlyWVRBM$</t>
   </si>
   <si>
     <t>JAMES</t>
@@ -297,7 +315,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
+    <col customWidth="1" min="1" max="1" width="15.5"/>
+    <col customWidth="1" min="3" max="3" width="18.63"/>
     <col customWidth="1" min="4" max="4" width="26.25"/>
     <col customWidth="1" min="5" max="5" width="20.63"/>
   </cols>
@@ -321,25 +340,43 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
         <v>8.80195614233E12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
         <v>8.80195614233E12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
